--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06943366666666667</v>
+        <v>0.06943366666666666</v>
       </c>
       <c r="N2">
         <v>0.208301</v>
       </c>
       <c r="O2">
-        <v>0.279000211626605</v>
+        <v>0.2790002116266049</v>
       </c>
       <c r="P2">
         <v>0.2790002116266049</v>
       </c>
       <c r="Q2">
-        <v>14.14930817724378</v>
+        <v>5.762138979993666</v>
       </c>
       <c r="R2">
-        <v>127.343773595194</v>
+        <v>51.85925081994299</v>
       </c>
       <c r="S2">
-        <v>0.1860185809148611</v>
+        <v>0.1252572598302913</v>
       </c>
       <c r="T2">
-        <v>0.1860185809148611</v>
+        <v>0.1252572598302913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,19 +623,19 @@
         <v>0.7209997883733951</v>
       </c>
       <c r="P3">
-        <v>0.720999788373395</v>
+        <v>0.7209997883733951</v>
       </c>
       <c r="Q3">
-        <v>36.56501958169089</v>
+        <v>14.89067323975233</v>
       </c>
       <c r="R3">
-        <v>329.0851762352181</v>
+        <v>134.016059157771</v>
       </c>
       <c r="S3">
-        <v>0.4807141782839592</v>
+        <v>0.323693151712504</v>
       </c>
       <c r="T3">
-        <v>0.4807141782839592</v>
+        <v>0.323693151712504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H4">
         <v>189.421768</v>
       </c>
       <c r="I4">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J4">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06943366666666667</v>
+        <v>0.06943366666666666</v>
       </c>
       <c r="N4">
         <v>0.208301</v>
       </c>
       <c r="O4">
-        <v>0.279000211626605</v>
+        <v>0.2790002116266049</v>
       </c>
       <c r="P4">
         <v>0.2790002116266049</v>
       </c>
       <c r="Q4">
-        <v>4.384082632907556</v>
+        <v>4.384082632907555</v>
       </c>
       <c r="R4">
         <v>39.456743696168</v>
       </c>
       <c r="S4">
-        <v>0.05763679890007255</v>
+        <v>0.09530109901447963</v>
       </c>
       <c r="T4">
-        <v>0.05763679890007253</v>
+        <v>0.09530109901447963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,7 +747,7 @@
         <v>0.7209997883733951</v>
       </c>
       <c r="P5">
-        <v>0.720999788373395</v>
+        <v>0.7209997883733951</v>
       </c>
       <c r="Q5">
         <v>11.32946327212178</v>
@@ -756,10 +756,10 @@
         <v>101.965169449096</v>
       </c>
       <c r="S5">
-        <v>0.1489465530050857</v>
+        <v>0.2462796419421767</v>
       </c>
       <c r="T5">
-        <v>0.1489465530050856</v>
+        <v>0.2462796419421767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>116.159826</v>
       </c>
       <c r="I6">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J6">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,13 +800,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.06943366666666667</v>
+        <v>0.06943366666666666</v>
       </c>
       <c r="N6">
         <v>0.208301</v>
       </c>
       <c r="O6">
-        <v>0.279000211626605</v>
+        <v>0.2790002116266049</v>
       </c>
       <c r="P6">
         <v>0.2790002116266049</v>
@@ -818,10 +818,10 @@
         <v>24.196207915626</v>
       </c>
       <c r="S6">
-        <v>0.03534483181167128</v>
+        <v>0.05844185278183406</v>
       </c>
       <c r="T6">
-        <v>0.03534483181167127</v>
+        <v>0.05844185278183406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>116.159826</v>
       </c>
       <c r="I7">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J7">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,19 +871,19 @@
         <v>0.7209997883733951</v>
       </c>
       <c r="P7">
-        <v>0.720999788373395</v>
+        <v>0.7209997883733951</v>
       </c>
       <c r="Q7">
-        <v>6.947609539591332</v>
+        <v>6.947609539591334</v>
       </c>
       <c r="R7">
-        <v>62.528485856322</v>
+        <v>62.52848585632201</v>
       </c>
       <c r="S7">
-        <v>0.09133905708435011</v>
+        <v>0.1510269947187144</v>
       </c>
       <c r="T7">
-        <v>0.0913390570843501</v>
+        <v>0.1510269947187144</v>
       </c>
     </row>
   </sheetData>
